--- a/IPL_2025_MatchIDs.xlsx
+++ b/IPL_2025_MatchIDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9F6978-34A6-480F-AA63-2FC0432139EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A231D-C296-4B64-9339-DCAC8994D63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24D7A113-0543-4197-91EF-529796B1265C}"/>
   </bookViews>
@@ -82,13 +82,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +126,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,19 +447,19 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -479,7 +487,7 @@
         <v>13387125035814</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -493,7 +501,7 @@
         <v>13387195867888</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -507,7 +515,7 @@
         <v>13387210308653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -521,7 +529,7 @@
         <v>13387296799883</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -535,7 +543,7 @@
         <v>13387383320502</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -549,7 +557,7 @@
         <v>13387470709054</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -563,7 +571,7 @@
         <v>13387555860163</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -577,7 +585,7 @@
         <v>13387642343991</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -591,7 +599,7 @@
         <v>13387728719891</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -605,7 +613,7 @@
         <v>13387800673563</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -619,7 +627,7 @@
         <v>13387815616217</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -633,7 +641,7 @@
         <v>13387901693945</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -647,7 +655,7 @@
         <v>13387987891773</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -661,7 +669,7 @@
         <v>13388074282818</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -675,7 +683,7 @@
         <v>13388160771857</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -685,9 +693,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>13388247143350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -697,9 +707,11 @@
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
+        <v>13388319121419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -709,9 +721,11 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>13388333622607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -721,9 +735,11 @@
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>13388419881809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -733,9 +749,11 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>13388506308010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -745,281 +763,283 @@
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <v>13388578466393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
